--- a/Kanji_dataset/Meaning.xlsx
+++ b/Kanji_dataset/Meaning.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1014" uniqueCount="957">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1062" uniqueCount="1001">
   <si>
     <t>Filename</t>
   </si>
@@ -3400,31 +3400,163 @@
     <t>失</t>
   </si>
   <si>
+    <t>うしな.う、 う.せる</t>
+  </si>
+  <si>
+    <t>シツ</t>
+  </si>
+  <si>
+    <t>loss, error, fault</t>
+  </si>
+  <si>
+    <t>Lỡ, mất, sai lầm</t>
+  </si>
+  <si>
     <t xml:space="preserve"> 矢</t>
   </si>
   <si>
+    <t>や</t>
+  </si>
+  <si>
+    <t>Thi</t>
+  </si>
+  <si>
+    <t>arrow</t>
+  </si>
+  <si>
+    <t>bắn cung</t>
+  </si>
+  <si>
     <t xml:space="preserve"> 尻</t>
   </si>
   <si>
+    <t>しり</t>
+  </si>
+  <si>
+    <t>Cừu</t>
+  </si>
+  <si>
+    <t>buttocks, hips, butt, rear</t>
+  </si>
+  <si>
+    <t>xương cùng</t>
+  </si>
+  <si>
     <t xml:space="preserve"> 尼</t>
   </si>
   <si>
+    <t>あま</t>
+  </si>
+  <si>
+    <t>ニ</t>
+  </si>
+  <si>
+    <t>Ni</t>
+  </si>
+  <si>
+    <t>Buddhist nun​</t>
+  </si>
+  <si>
+    <t>Nữ sư</t>
+  </si>
+  <si>
     <t xml:space="preserve"> 左</t>
   </si>
   <si>
+    <t>ひだり</t>
+  </si>
+  <si>
+    <t>サ、 シャ</t>
+  </si>
+  <si>
+    <t>Tả</t>
+  </si>
+  <si>
+    <t>Left</t>
+  </si>
+  <si>
+    <t>Bên trái</t>
+  </si>
+  <si>
     <t>布</t>
   </si>
   <si>
+    <t>ぬの、 し.く、 きれ</t>
+  </si>
+  <si>
+    <t>フ、 ホ</t>
+  </si>
+  <si>
+    <t>Bố</t>
+  </si>
+  <si>
+    <t>linen, cloth, spread, distribute</t>
+  </si>
+  <si>
+    <t>Vải vóc, bày ra</t>
+  </si>
+  <si>
     <t>平</t>
   </si>
   <si>
+    <t>たい.ら、 たい.らげる、 ひら</t>
+  </si>
+  <si>
+    <t>ヘイ、 ビョウ、 ヒョウ</t>
+  </si>
+  <si>
+    <t>Bình</t>
+  </si>
+  <si>
+    <t>even, flat, peace</t>
+  </si>
+  <si>
+    <t>Bằng phẳng</t>
+  </si>
+  <si>
     <t xml:space="preserve"> 幼</t>
   </si>
   <si>
+    <t>おさな.い</t>
+  </si>
+  <si>
+    <t>ヨウ</t>
+  </si>
+  <si>
+    <t>Ấu</t>
+  </si>
+  <si>
+    <t>infancy, childhood</t>
+  </si>
+  <si>
+    <t>Bé, nhỏ tuổi</t>
+  </si>
+  <si>
     <t xml:space="preserve"> 弁</t>
   </si>
   <si>
+    <t>Biền, BIện</t>
+  </si>
+  <si>
+    <t>valve, petal, braid, speech, dialect, discrimination, dispose of, distinguish, conical cap</t>
+  </si>
+  <si>
+    <t>Mũ lớn cảu quan ngày xưa</t>
+  </si>
+  <si>
     <t>必</t>
+  </si>
+  <si>
+    <t>かなら.ず</t>
+  </si>
+  <si>
+    <t>Tất</t>
+  </si>
+  <si>
+    <t>invariably, certain, inevitable</t>
+  </si>
+  <si>
+    <t>Tất yếu, nhất định</t>
   </si>
   <si>
     <t>打</t>
@@ -3522,23 +3654,46 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3550,6 +3705,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -3558,7 +3728,67 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -3574,105 +3804,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3687,19 +3819,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3711,19 +3861,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3741,19 +3885,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3765,7 +3921,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3777,13 +3951,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3795,19 +3987,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3819,55 +3999,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3881,11 +4013,35 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3905,39 +4061,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -3945,21 +4068,6 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3978,143 +4086,167 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="26" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -4479,8 +4611,8 @@
   <sheetPr/>
   <dimension ref="A1:G193"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A160" workbookViewId="0">
-      <selection activeCell="E179" sqref="E179"/>
+    <sheetView tabSelected="1" topLeftCell="A166" workbookViewId="0">
+      <selection activeCell="D183" sqref="D183"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.9" defaultRowHeight="14.25" outlineLevelCol="6"/>
@@ -8320,84 +8452,228 @@
         <v>935</v>
       </c>
     </row>
-    <row r="172" spans="1:2">
+    <row r="172" spans="1:7">
       <c r="A172">
         <v>171</v>
       </c>
       <c r="B172" s="1" t="s">
         <v>936</v>
       </c>
-    </row>
-    <row r="173" spans="1:2">
+      <c r="C172" t="s">
+        <v>937</v>
+      </c>
+      <c r="D172" t="s">
+        <v>938</v>
+      </c>
+      <c r="E172" t="s">
+        <v>32</v>
+      </c>
+      <c r="F172" t="s">
+        <v>939</v>
+      </c>
+      <c r="G172" t="s">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7">
       <c r="A173">
         <v>172</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>937</v>
-      </c>
-    </row>
-    <row r="174" spans="1:2">
+        <v>941</v>
+      </c>
+      <c r="C173" t="s">
+        <v>942</v>
+      </c>
+      <c r="D173" t="s">
+        <v>177</v>
+      </c>
+      <c r="E173" t="s">
+        <v>943</v>
+      </c>
+      <c r="F173" t="s">
+        <v>944</v>
+      </c>
+      <c r="G173" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7">
       <c r="A174">
         <v>173</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>938</v>
-      </c>
-    </row>
-    <row r="175" spans="1:2">
+        <v>946</v>
+      </c>
+      <c r="C174" t="s">
+        <v>947</v>
+      </c>
+      <c r="D174" t="s">
+        <v>880</v>
+      </c>
+      <c r="E174" t="s">
+        <v>948</v>
+      </c>
+      <c r="F174" t="s">
+        <v>949</v>
+      </c>
+      <c r="G174" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7">
       <c r="A175">
         <v>174</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>939</v>
-      </c>
-    </row>
-    <row r="176" spans="1:2">
+        <v>951</v>
+      </c>
+      <c r="C175" t="s">
+        <v>952</v>
+      </c>
+      <c r="D175" t="s">
+        <v>953</v>
+      </c>
+      <c r="E175" t="s">
+        <v>954</v>
+      </c>
+      <c r="F175" t="s">
+        <v>955</v>
+      </c>
+      <c r="G175" t="s">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7">
       <c r="A176">
         <v>175</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>940</v>
-      </c>
-    </row>
-    <row r="177" spans="1:2">
+        <v>957</v>
+      </c>
+      <c r="C176" t="s">
+        <v>958</v>
+      </c>
+      <c r="D176" t="s">
+        <v>959</v>
+      </c>
+      <c r="E176" t="s">
+        <v>960</v>
+      </c>
+      <c r="F176" t="s">
+        <v>961</v>
+      </c>
+      <c r="G176" t="s">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7">
       <c r="A177">
         <v>176</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>941</v>
-      </c>
-    </row>
-    <row r="178" spans="1:2">
+        <v>963</v>
+      </c>
+      <c r="C177" t="s">
+        <v>964</v>
+      </c>
+      <c r="D177" t="s">
+        <v>965</v>
+      </c>
+      <c r="E177" t="s">
+        <v>966</v>
+      </c>
+      <c r="F177" t="s">
+        <v>967</v>
+      </c>
+      <c r="G177" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7">
       <c r="A178">
         <v>177</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>942</v>
-      </c>
-    </row>
-    <row r="179" spans="1:2">
+        <v>969</v>
+      </c>
+      <c r="C178" t="s">
+        <v>970</v>
+      </c>
+      <c r="D178" t="s">
+        <v>971</v>
+      </c>
+      <c r="E178" t="s">
+        <v>972</v>
+      </c>
+      <c r="F178" t="s">
+        <v>973</v>
+      </c>
+      <c r="G178" t="s">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7">
       <c r="A179">
         <v>178</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>943</v>
-      </c>
-    </row>
-    <row r="180" spans="1:2">
+        <v>975</v>
+      </c>
+      <c r="C179" t="s">
+        <v>976</v>
+      </c>
+      <c r="D179" t="s">
+        <v>977</v>
+      </c>
+      <c r="E179" t="s">
+        <v>978</v>
+      </c>
+      <c r="F179" t="s">
+        <v>979</v>
+      </c>
+      <c r="G179" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7">
       <c r="A180">
         <v>179</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>944</v>
-      </c>
-    </row>
-    <row r="181" spans="1:2">
+        <v>981</v>
+      </c>
+      <c r="E180" t="s">
+        <v>982</v>
+      </c>
+      <c r="F180" t="s">
+        <v>983</v>
+      </c>
+      <c r="G180" t="s">
+        <v>984</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7">
       <c r="A181">
         <v>180</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>945</v>
+        <v>985</v>
+      </c>
+      <c r="C181" t="s">
+        <v>986</v>
+      </c>
+      <c r="D181" t="s">
+        <v>418</v>
+      </c>
+      <c r="E181" t="s">
+        <v>987</v>
+      </c>
+      <c r="F181" t="s">
+        <v>988</v>
+      </c>
+      <c r="G181" t="s">
+        <v>989</v>
       </c>
     </row>
     <row r="182" spans="1:2">
@@ -8405,7 +8681,7 @@
         <v>181</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>946</v>
+        <v>990</v>
       </c>
     </row>
     <row r="183" spans="1:2">
@@ -8413,7 +8689,7 @@
         <v>182</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>947</v>
+        <v>991</v>
       </c>
     </row>
     <row r="184" spans="1:2">
@@ -8421,7 +8697,7 @@
         <v>183</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>948</v>
+        <v>992</v>
       </c>
     </row>
     <row r="185" spans="1:2">
@@ -8429,7 +8705,7 @@
         <v>184</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>949</v>
+        <v>993</v>
       </c>
     </row>
     <row r="186" spans="1:2">
@@ -8437,7 +8713,7 @@
         <v>185</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>950</v>
+        <v>994</v>
       </c>
     </row>
     <row r="187" spans="1:2">
@@ -8445,7 +8721,7 @@
         <v>186</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>951</v>
+        <v>995</v>
       </c>
     </row>
     <row r="188" spans="1:2">
@@ -8453,7 +8729,7 @@
         <v>187</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>951</v>
+        <v>995</v>
       </c>
     </row>
     <row r="189" spans="1:2">
@@ -8461,7 +8737,7 @@
         <v>188</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>952</v>
+        <v>996</v>
       </c>
     </row>
     <row r="190" spans="1:2">
@@ -8469,7 +8745,7 @@
         <v>189</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>953</v>
+        <v>997</v>
       </c>
     </row>
     <row r="191" spans="1:2">
@@ -8477,7 +8753,7 @@
         <v>190</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>954</v>
+        <v>998</v>
       </c>
     </row>
     <row r="192" spans="1:2">
@@ -8485,7 +8761,7 @@
         <v>191</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>955</v>
+        <v>999</v>
       </c>
     </row>
     <row r="193" spans="1:2">
@@ -8493,7 +8769,7 @@
         <v>192</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>956</v>
+        <v>1000</v>
       </c>
     </row>
   </sheetData>
